--- a/300/23_d(01)/analysis_23.xlsx
+++ b/300/23_d(01)/analysis_23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSTek\Desktop\LianChia\misson\300\23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSTek\Desktop\LianChia\misson\300\23_d(01)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA325C-0D0A-4320-8618-088392A29249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA0588-E5E2-4E58-82B8-F9441DA4A301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
